--- a/tut05/output/0401EE02.xlsx
+++ b/tut05/output/0401EE02.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.224489795918367</v>
+        <v>5.22</v>
       </c>
       <c r="C6" t="n">
-        <v>5.613636363636363</v>
+        <v>5.61</v>
       </c>
       <c r="D6" t="n">
-        <v>5.478260869565218</v>
+        <v>5.48</v>
       </c>
       <c r="E6" t="n">
-        <v>5.782608695652174</v>
+        <v>5.78</v>
       </c>
       <c r="F6" t="n">
-        <v>5.538461538461538</v>
+        <v>5.54</v>
       </c>
       <c r="G6" t="n">
         <v>5.05</v>
       </c>
       <c r="H6" t="n">
-        <v>6.069767441860465</v>
+        <v>6.07</v>
       </c>
       <c r="I6" t="n">
-        <v>6.315789473684211</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.224489795918367</v>
+        <v>5.22</v>
       </c>
       <c r="C8" t="n">
-        <v>5.408602150537634</v>
+        <v>5.41</v>
       </c>
       <c r="D8" t="n">
-        <v>5.431654676258993</v>
+        <v>5.43</v>
       </c>
       <c r="E8" t="n">
-        <v>5.518918918918919</v>
+        <v>5.52</v>
       </c>
       <c r="F8" t="n">
-        <v>5.522321428571429</v>
+        <v>5.52</v>
       </c>
       <c r="G8" t="n">
-        <v>5.450757575757576</v>
+        <v>5.45</v>
       </c>
       <c r="H8" t="n">
-        <v>5.537459283387622</v>
+        <v>5.54</v>
       </c>
       <c r="I8" t="n">
-        <v>5.623188405797102</v>
+        <v>5.62</v>
       </c>
     </row>
   </sheetData>
